--- a/Data/Processing/2024-02-02/BPCL.xlsx
+++ b/Data/Processing/2024-02-02/BPCL.xlsx
@@ -5172,7 +5172,7 @@
         <v>350.83</v>
       </c>
       <c r="E93">
-        <v>351.73</v>
+        <v>351.72</v>
       </c>
       <c r="F93">
         <v>353.9</v>
@@ -5184,7 +5184,7 @@
         <v>37</v>
       </c>
       <c r="I93">
-        <v>-0.68</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="J93">
         <v>0.01</v>
@@ -5196,13 +5196,13 @@
         <v>0.23</v>
       </c>
       <c r="M93">
-        <v>0.2599999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="N93">
         <v>0.95</v>
       </c>
       <c r="O93">
-        <v>342.1897727272727</v>
+        <v>342.1895454545455</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>45098</v>
       </c>
       <c r="B94">
-        <v>351.72</v>
+        <v>351.73</v>
       </c>
       <c r="C94">
         <v>353.9</v>
@@ -5225,7 +5225,7 @@
         <v>352.06</v>
       </c>
       <c r="F94">
-        <v>351.73</v>
+        <v>351.72</v>
       </c>
       <c r="G94">
         <v>1340149</v>
@@ -5234,16 +5234,16 @@
         <v>38</v>
       </c>
       <c r="I94">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="J94">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="K94">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="L94">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="M94">
         <v>-0.52</v>
@@ -5252,7 +5252,7 @@
         <v>0.91</v>
       </c>
       <c r="O94">
-        <v>342.8509090909091</v>
+        <v>342.8506818181818</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>2.03</v>
       </c>
       <c r="O95">
-        <v>343.4884090909091</v>
+        <v>343.4881818181818</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>3.43</v>
       </c>
       <c r="O96">
-        <v>343.7759090909091</v>
+        <v>343.7756818181819</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -5402,7 +5402,7 @@
         <v>1.99</v>
       </c>
       <c r="O97">
-        <v>344.0140909090909</v>
+        <v>344.0138636363636</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>1.58</v>
       </c>
       <c r="O98">
-        <v>344.29</v>
+        <v>344.2897727272727</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>344.5336363636363</v>
+        <v>344.5334090909091</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>2.06</v>
       </c>
       <c r="O100">
-        <v>344.7279545454545</v>
+        <v>344.7277272727272</v>
       </c>
       <c r="P100">
         <v>1</v>
@@ -5602,7 +5602,7 @@
         <v>4.53</v>
       </c>
       <c r="O101">
-        <v>345.1079545454546</v>
+        <v>345.1077272727273</v>
       </c>
       <c r="P101">
         <v>1</v>
@@ -5652,7 +5652,7 @@
         <v>1.39</v>
       </c>
       <c r="O102">
-        <v>345.4415909090909</v>
+        <v>345.4413636363636</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>3.21</v>
       </c>
       <c r="O103">
-        <v>345.9943181818182</v>
+        <v>345.994090909091</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>3.14</v>
       </c>
       <c r="O104">
-        <v>346.5297727272728</v>
+        <v>346.5295454545455</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>2.19</v>
       </c>
       <c r="O105">
-        <v>347.0922727272727</v>
+        <v>347.0920454545454</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>2.31</v>
       </c>
       <c r="O106">
-        <v>347.4893181818182</v>
+        <v>347.4890909090909</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>1.64</v>
       </c>
       <c r="O107">
-        <v>348.0011363636364</v>
+        <v>348.0009090909091</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>1.97</v>
       </c>
       <c r="O108">
-        <v>348.3027272727273</v>
+        <v>348.3025</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -6002,7 +6002,7 @@
         <v>2.33</v>
       </c>
       <c r="O109">
-        <v>348.4529545454545</v>
+        <v>348.4527272727273</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>1.62</v>
       </c>
       <c r="O110">
-        <v>348.8318181818182</v>
+        <v>348.8315909090909</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -6102,7 +6102,7 @@
         <v>1.26</v>
       </c>
       <c r="O111">
-        <v>349.3631818181818</v>
+        <v>349.3629545454546</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>2.42</v>
       </c>
       <c r="O112">
-        <v>349.7204545454546</v>
+        <v>349.7202272727273</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>1.83</v>
       </c>
       <c r="O113">
-        <v>350.1454545454545</v>
+        <v>350.1452272727273</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>1.52</v>
       </c>
       <c r="O114">
-        <v>350.7302272727272</v>
+        <v>350.73</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>1.8</v>
       </c>
       <c r="O115">
-        <v>351.3815909090909</v>
+        <v>351.3813636363636</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>1.09</v>
       </c>
       <c r="O116">
-        <v>351.9813636363637</v>
+        <v>351.9811363636364</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>1.7</v>
       </c>
       <c r="O117">
-        <v>352.4063636363636</v>
+        <v>352.4061363636363</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>2.9</v>
       </c>
       <c r="O118">
-        <v>352.9193181818181</v>
+        <v>352.9190909090909</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>7.31</v>
       </c>
       <c r="O119">
-        <v>353.2618181818182</v>
+        <v>353.2615909090909</v>
       </c>
       <c r="P119">
         <v>1</v>
@@ -6552,7 +6552,7 @@
         <v>2.03</v>
       </c>
       <c r="O120">
-        <v>353.4581818181818</v>
+        <v>353.4579545454545</v>
       </c>
       <c r="P120">
         <v>1</v>
@@ -6602,7 +6602,7 @@
         <v>1.82</v>
       </c>
       <c r="O121">
-        <v>353.7972727272727</v>
+        <v>353.7970454545455</v>
       </c>
       <c r="P121">
         <v>1</v>
@@ -6652,7 +6652,7 @@
         <v>1.47</v>
       </c>
       <c r="O122">
-        <v>354.1640909090909</v>
+        <v>354.1638636363636</v>
       </c>
       <c r="P122">
         <v>1</v>
@@ -6702,7 +6702,7 @@
         <v>2.97</v>
       </c>
       <c r="O123">
-        <v>354.2843181818182</v>
+        <v>354.2840909090909</v>
       </c>
       <c r="P123">
         <v>1</v>
@@ -6752,7 +6752,7 @@
         <v>2.01</v>
       </c>
       <c r="O124">
-        <v>354.3584090909091</v>
+        <v>354.3581818181818</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>2.93</v>
       </c>
       <c r="O125">
-        <v>354.3661363636364</v>
+        <v>354.3659090909091</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>1.48</v>
       </c>
       <c r="O126">
-        <v>354.4486363636364</v>
+        <v>354.4484090909091</v>
       </c>
       <c r="P126">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>2.05</v>
       </c>
       <c r="O127">
-        <v>354.4852272727272</v>
+        <v>354.485</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>1.01</v>
       </c>
       <c r="O128">
-        <v>354.3188636363636</v>
+        <v>354.3186363636364</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -7002,7 +7002,7 @@
         <v>1.51</v>
       </c>
       <c r="O129">
-        <v>354.3520454545455</v>
+        <v>354.3518181818181</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>1.28</v>
       </c>
       <c r="O130">
-        <v>354.3968181818182</v>
+        <v>354.3965909090909</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>2.12</v>
       </c>
       <c r="O131">
-        <v>354.1581818181818</v>
+        <v>354.1579545454546</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -7152,7 +7152,7 @@
         <v>2.06</v>
       </c>
       <c r="O132">
-        <v>353.9068181818182</v>
+        <v>353.9065909090909</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>1.66</v>
       </c>
       <c r="O133">
-        <v>353.6361363636364</v>
+        <v>353.6359090909091</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>1.76</v>
       </c>
       <c r="O134">
-        <v>353.1625</v>
+        <v>353.1622727272728</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -7302,7 +7302,7 @@
         <v>1.2</v>
       </c>
       <c r="O135">
-        <v>352.7156818181818</v>
+        <v>352.7154545454546</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -7352,7 +7352,7 @@
         <v>2.33</v>
       </c>
       <c r="O136">
-        <v>352.2009090909091</v>
+        <v>352.2006818181818</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>1.73</v>
       </c>
       <c r="O158">
-        <v>342.4152272727273</v>
+        <v>342.4152272727272</v>
       </c>
       <c r="P158">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>2.31</v>
       </c>
       <c r="O162">
-        <v>339.3736363636364</v>
+        <v>339.3736363636363</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>1.45</v>
       </c>
       <c r="O167">
-        <v>336.4406818181818</v>
+        <v>336.4406818181819</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>1.82</v>
       </c>
       <c r="O171">
-        <v>335.1538636363637</v>
+        <v>335.1538636363636</v>
       </c>
       <c r="P171">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>2.35</v>
       </c>
       <c r="O177">
-        <v>334.1979545454546</v>
+        <v>334.1979545454545</v>
       </c>
       <c r="P177">
         <v>1</v>
@@ -9502,7 +9502,7 @@
         <v>2.34</v>
       </c>
       <c r="O179">
-        <v>333.7161363636363</v>
+        <v>333.7161363636364</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>2.04</v>
       </c>
       <c r="O204">
-        <v>351.6488636363637</v>
+        <v>351.6488636363636</v>
       </c>
       <c r="P204">
         <v>0</v>
@@ -13029,7 +13029,7 @@
         <v>4.26</v>
       </c>
       <c r="O237">
-        <v>438.3413636363636</v>
+        <v>438.3413636363637</v>
       </c>
       <c r="P237">
         <v>0</v>
@@ -13828,7 +13828,7 @@
         <v>2.77</v>
       </c>
       <c r="O245">
-        <v>456.6011363636364</v>
+        <v>456.6011363636363</v>
       </c>
       <c r="P245">
         <v>0</v>
@@ -14042,7 +14042,7 @@
         <v>10.9</v>
       </c>
       <c r="O247">
-        <v>462.0886363636363</v>
+        <v>462.0886363636364</v>
       </c>
       <c r="P247">
         <v>0</v>
